--- a/職務経歴書_李東基.xlsx
+++ b/職務経歴書_李東基.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mon12\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB7ADB-C72D-4EDB-BA94-BD093B1EC3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB750FD-03E5-413E-A044-A61763B1BC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>フリガナ</t>
   </si>
@@ -363,10 +363,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">私は靑江文化産業大学校のゲーム学部にて、プログラミングを専攻いたしました。卒業作品として、Unityで3Dアクションゲームを開発し、韓国のG-STARに展示した経験があります。
-大学を卒業後、韓国国内の企業で１年間モバイルアプリゲームの開発を行いました。その際の具体的な担当業務は、Unityでのゲームロジックの設計、UI設から広告挿入まで、開発着手からAndroidやiOSに登録までのリリース作業まで一貫して担当していました。
-日本の会社では4年目のゲームプログラマーとして働いていて、PS4、Nintendo Switch、VRなどの開発を担当しています。
-最近はスキルアップする為、UE4とモダンC++の勉強をしています。
+    <t>製作期間:9か月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務内容
+エネミのーAI、管理など、エネミー全般の開発、UI、演出などの開発
+・ジャンル：VRアクションゲーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity - VSCode, C#、PhotonPun2、UniTask、UniRx、Behavior Designer
+Git - SourceTree
+Redmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">私はゲーム開発の分野において、情熱をもって働いているプログラマーです。
+青江文化産業大学のゲーム学科でプログラミングを専攻し、
+卒業制作ではUnityを使用して開発した3Dアクションゲームが韓国G-Starに出展されました。
+このプロジェクトを通じて、チームとの協力や開発プロセスにおいて深い理解を得ました。
+大学卒業後、韓国のゲーム企業で1年間、モバイルゲームの開発に従事し、Unityを使用してゲームロジックの設計、UIの作業、広告など、様々な役割を担当し、AndroidおよびiOSプラットフォームに成功裏にリリースしました。
+その後、日本のゲーム企業に入社し、現在までにPS4、Nintendo Switch、VR、PCなど、様々なプラットフォームのゲームを開発しています。
+出向や外注を専門とする企業での経験を通じて、様々なプロジェクトに参加し、幅広い経験を積むことができました。
+最近では、スキルアップが必要だと感じ、Photonについて勉強しています。
+これは、現在の業務に必要な新しい技術を学び、高度なマルチプレイヤー機能の開発に役立つことを期待しています。
+ゲーム開発への情熱と多岐にわたる経験を基に、私は常に新たな挑戦にオープンな姿勢で仕事に取り組んでいます。
+今後も技術的な成長とチーム内での協力能力を高め、ゲーム産業の発展に貢献していきたいと考えています。
+どうぞよろしくお願いいたします。
  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,6 +839,114 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -869,15 +1001,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -895,105 +1018,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,9 +1038,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1054,9 +1078,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1089,26 +1113,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1141,26 +1148,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1338,9 +1328,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L889"/>
+  <dimension ref="A1:L894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:L8"/>
     </sheetView>
   </sheetViews>
@@ -1351,20 +1341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
@@ -1381,112 +1371,112 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="60">
+      <c r="J3" s="14"/>
+      <c r="K3" s="32">
         <v>34331</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="50" t="s">
-        <v>59</v>
+      <c r="B5" s="14"/>
+      <c r="C5" s="38" t="s">
+        <v>62</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="41"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="44"/>
-    </row>
-    <row r="8" spans="1:12" ht="91.5" customHeight="1" thickBot="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="177.75" customHeight="1" thickBot="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
       <c r="A9" s="5"/>
@@ -1503,1087 +1493,1099 @@
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="38" t="s">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="39" t="s">
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="48" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A16" s="33" t="s">
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="39" t="s">
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="48" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="44"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A21" s="33" t="s">
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="38" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="39" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="48" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="44"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-    </row>
-    <row r="25" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="47"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A26" s="33" t="s">
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="38" t="s">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="39" t="s">
+      <c r="K31" s="7"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="48" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-    </row>
-    <row r="30" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A31" s="33" t="s">
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="38" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-    </row>
-    <row r="32" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="39" t="s">
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="48" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
-    </row>
-    <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-    </row>
-    <row r="35" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="47"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A36" s="24" t="s">
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A41" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="26" t="s">
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="L36" s="25"/>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A37" s="33" t="s">
+      <c r="L41" s="40"/>
+    </row>
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="38" t="s">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-    </row>
-    <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="39" t="s">
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="48" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="44"/>
-    </row>
-    <row r="41" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="47"/>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A42" s="33" t="s">
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="38" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-    </row>
-    <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="39" t="s">
+      <c r="K47" s="7"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="48" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="40"/>
-      <c r="L43" s="41"/>
-    </row>
-    <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
-    </row>
-    <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-    </row>
-    <row r="46" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-    </row>
-    <row r="47" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A47" s="33" t="s">
+      <c r="K48" s="13"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
+    </row>
+    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="36" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="38" t="s">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
-    </row>
-    <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="39" t="s">
+      <c r="K52" s="7"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="48" t="s">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="41"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="44"/>
-    </row>
-    <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="44"/>
-    </row>
-    <row r="51" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="47"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A52" s="33" t="s">
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+    </row>
+    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="17"/>
+    </row>
+    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="17"/>
+    </row>
+    <row r="56" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="38" t="s">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-    </row>
-    <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="39" t="s">
+      <c r="K57" s="7"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="48" t="s">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="40"/>
-      <c r="L53" s="41"/>
-    </row>
-    <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="44"/>
-    </row>
-    <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="44"/>
-    </row>
-    <row r="56" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="47"/>
-    </row>
-    <row r="57" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A57" s="33" t="s">
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
+    </row>
+    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="17"/>
+    </row>
+    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="17"/>
+    </row>
+    <row r="61" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A62" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36" t="s">
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="38" t="s">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K57" s="34"/>
-      <c r="L57" s="35"/>
-    </row>
-    <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="39" t="s">
+      <c r="K62" s="7"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="48" t="s">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="40"/>
-      <c r="L58" s="41"/>
-    </row>
-    <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="42"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="44"/>
-    </row>
-    <row r="60" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="42"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="44"/>
-    </row>
-    <row r="61" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="47"/>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A62" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="25"/>
-    </row>
-    <row r="63" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K63" s="28"/>
-      <c r="L63" s="29"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="15"/>
       <c r="K64" s="16"/>
       <c r="L64" s="17"/>
     </row>
     <row r="65" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="9"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="11"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="17"/>
+    </row>
+    <row r="66" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="20"/>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
       <c r="L66" s="20"/>
     </row>
-    <row r="67" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A67" s="9"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="20"/>
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L67" s="40"/>
+    </row>
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A68" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" s="61"/>
+      <c r="L68" s="62"/>
     </row>
     <row r="69" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="9"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="20"/>
-    </row>
-    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="23"/>
-    </row>
-    <row r="71" spans="1:12" ht="12" customHeight="1"/>
-    <row r="72" spans="1:12" ht="12" customHeight="1"/>
-    <row r="73" spans="1:12" ht="12" customHeight="1"/>
-    <row r="74" spans="1:12" ht="12" customHeight="1"/>
-    <row r="75" spans="1:12" ht="12" customHeight="1"/>
+      <c r="A69" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="52"/>
+      <c r="L69" s="53"/>
+    </row>
+    <row r="70" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="47"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A75" s="48"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="59"/>
+    </row>
     <row r="76" spans="1:12" ht="12" customHeight="1"/>
     <row r="77" spans="1:12" ht="12" customHeight="1"/>
     <row r="78" spans="1:12" ht="12" customHeight="1"/>
-    <row r="79" spans="1:12" ht="12" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" ht="12" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" ht="12" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" ht="12" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" ht="12" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-    </row>
+    <row r="79" spans="1:12" ht="12" customHeight="1"/>
+    <row r="80" spans="1:12" ht="12" customHeight="1"/>
+    <row r="81" spans="1:12" ht="12" customHeight="1"/>
+    <row r="82" spans="1:12" ht="12" customHeight="1"/>
+    <row r="83" spans="1:12" ht="12" customHeight="1"/>
     <row r="84" spans="1:12" ht="12" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
@@ -13868,14 +13870,155 @@
       <c r="K889" s="2"/>
       <c r="L889" s="2"/>
     </row>
+    <row r="890" spans="1:12" ht="12" customHeight="1">
+      <c r="A890" s="2"/>
+      <c r="B890" s="3"/>
+      <c r="C890" s="2"/>
+      <c r="D890" s="2"/>
+      <c r="E890" s="2"/>
+      <c r="F890" s="2"/>
+      <c r="G890" s="2"/>
+      <c r="H890" s="2"/>
+      <c r="I890" s="2"/>
+      <c r="J890" s="2"/>
+      <c r="K890" s="2"/>
+      <c r="L890" s="2"/>
+    </row>
+    <row r="891" spans="1:12" ht="12" customHeight="1">
+      <c r="A891" s="2"/>
+      <c r="B891" s="3"/>
+      <c r="C891" s="2"/>
+      <c r="D891" s="2"/>
+      <c r="E891" s="2"/>
+      <c r="F891" s="2"/>
+      <c r="G891" s="2"/>
+      <c r="H891" s="2"/>
+      <c r="I891" s="2"/>
+      <c r="J891" s="2"/>
+      <c r="K891" s="2"/>
+      <c r="L891" s="2"/>
+    </row>
+    <row r="892" spans="1:12" ht="12" customHeight="1">
+      <c r="A892" s="2"/>
+      <c r="B892" s="3"/>
+      <c r="C892" s="2"/>
+      <c r="D892" s="2"/>
+      <c r="E892" s="2"/>
+      <c r="F892" s="2"/>
+      <c r="G892" s="2"/>
+      <c r="H892" s="2"/>
+      <c r="I892" s="2"/>
+      <c r="J892" s="2"/>
+      <c r="K892" s="2"/>
+      <c r="L892" s="2"/>
+    </row>
+    <row r="893" spans="1:12" ht="12" customHeight="1">
+      <c r="A893" s="2"/>
+      <c r="B893" s="3"/>
+      <c r="C893" s="2"/>
+      <c r="D893" s="2"/>
+      <c r="E893" s="2"/>
+      <c r="F893" s="2"/>
+      <c r="G893" s="2"/>
+      <c r="H893" s="2"/>
+      <c r="I893" s="2"/>
+      <c r="J893" s="2"/>
+      <c r="K893" s="2"/>
+      <c r="L893" s="2"/>
+    </row>
+    <row r="894" spans="1:12" ht="12" customHeight="1">
+      <c r="A894" s="2"/>
+      <c r="B894" s="3"/>
+      <c r="C894" s="2"/>
+      <c r="D894" s="2"/>
+      <c r="E894" s="2"/>
+      <c r="F894" s="2"/>
+      <c r="G894" s="2"/>
+      <c r="H894" s="2"/>
+      <c r="I894" s="2"/>
+      <c r="J894" s="2"/>
+      <c r="K894" s="2"/>
+      <c r="L894" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="94">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A12:I15"/>
+    <mergeCell ref="J12:L15"/>
+    <mergeCell ref="A69:I75"/>
+    <mergeCell ref="J69:L75"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="A63:I66"/>
+    <mergeCell ref="J63:L66"/>
+    <mergeCell ref="A58:I61"/>
+    <mergeCell ref="J58:L61"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:I56"/>
+    <mergeCell ref="J53:L56"/>
+    <mergeCell ref="A48:I51"/>
+    <mergeCell ref="J48:L51"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A43:I46"/>
+    <mergeCell ref="J43:L46"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:I35"/>
+    <mergeCell ref="J32:L35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A37:I40"/>
+    <mergeCell ref="J37:L40"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="A22:I25"/>
     <mergeCell ref="J22:L25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="C5:L8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="J17:L20"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -13887,77 +14030,12 @@
     <mergeCell ref="K3:L4"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A12:I15"/>
-    <mergeCell ref="J12:L15"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="C5:L8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="J17:L20"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
     <mergeCell ref="A27:I30"/>
     <mergeCell ref="J27:L30"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="A32:I35"/>
-    <mergeCell ref="J32:L35"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="A38:I41"/>
-    <mergeCell ref="J38:L41"/>
-    <mergeCell ref="A43:I46"/>
-    <mergeCell ref="J43:L46"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A48:I51"/>
-    <mergeCell ref="J48:L51"/>
-    <mergeCell ref="A53:I56"/>
-    <mergeCell ref="J53:L56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="A58:I61"/>
-    <mergeCell ref="J58:L61"/>
-    <mergeCell ref="A64:I70"/>
-    <mergeCell ref="J64:L70"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="J63:L63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
